--- a/部落冲突客户信息.xlsx
+++ b/部落冲突客户信息.xlsx
@@ -397,7 +397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,12 @@
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t xml:space="preserve">用户名称
+          <t>用户名称</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">服务器名
 </t>
         </is>
       </c>
@@ -506,7 +511,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t xml:space="preserve">天空之城
+          <t>天空之城</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
 </t>
         </is>
       </c>
@@ -559,7 +569,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t xml:space="preserve">售出账号
+          <t>售出账号</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
 </t>
         </is>
       </c>
@@ -612,7 +627,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t xml:space="preserve">叙利亚军团
+          <t>叙利亚军团</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
 </t>
         </is>
       </c>
@@ -665,7 +685,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t xml:space="preserve">神马
+          <t>神马</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
 </t>
         </is>
       </c>
@@ -718,7 +743,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t xml:space="preserve">云霄天庭
+          <t>云霄天庭</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
 </t>
         </is>
       </c>
@@ -771,7 +801,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t xml:space="preserve">烟花易冷人事易分
+          <t>烟花易冷人事易分</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
 </t>
         </is>
       </c>
@@ -824,7 +859,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t xml:space="preserve">卡洛斯
+          <t>卡洛斯</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
 </t>
         </is>
       </c>
@@ -877,7 +917,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t xml:space="preserve">幻世贵族
+          <t>幻世贵族</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
 </t>
         </is>
       </c>
@@ -930,7 +975,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t xml:space="preserve">君临
+          <t>君临</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
 </t>
         </is>
       </c>
@@ -983,7 +1033,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t xml:space="preserve">为琴所困
+          <t>为琴所困</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
 </t>
         </is>
       </c>
@@ -1036,7 +1091,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t xml:space="preserve">红领巾的骄傲
+          <t>红领巾的骄傲</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
 </t>
         </is>
       </c>
@@ -1089,7 +1149,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t xml:space="preserve">皇极无门
+          <t>皇极无门</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
 </t>
         </is>
       </c>
@@ -1142,7 +1207,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t xml:space="preserve">草帽海贼团
+          <t>草帽海贼团</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
 </t>
         </is>
       </c>
@@ -1195,7 +1265,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t xml:space="preserve">草帽海贼团
+          <t>草帽海贼团</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
 </t>
         </is>
       </c>
@@ -1248,7 +1323,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t xml:space="preserve">转让首领
+          <t>转让首领</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
 </t>
         </is>
       </c>
@@ -1301,7 +1381,12 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rose Lemonade
+          <t>Rose Lemonade</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
 </t>
         </is>
       </c>
@@ -1354,7 +1439,12 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t xml:space="preserve">彼岸花
+          <t>彼岸花</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
 </t>
         </is>
       </c>
@@ -1407,7 +1497,12 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t xml:space="preserve">18电商一班
+          <t>18电商一班</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
 </t>
         </is>
       </c>
@@ -1460,7 +1555,12 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t xml:space="preserve">D03A
+          <t>D03A</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
 </t>
         </is>
       </c>
@@ -1513,7 +1613,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t xml:space="preserve">CHINSURAH
+          <t>CHINSURAH</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
 </t>
         </is>
       </c>
@@ -1566,7 +1671,12 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t xml:space="preserve">低本训练营
+          <t>低本训练营</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
 </t>
         </is>
       </c>
@@ -1619,7 +1729,12 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t xml:space="preserve">半夏微凉
+          <t>半夏微凉</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
 </t>
         </is>
       </c>
@@ -1672,7 +1787,12 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t xml:space="preserve">冠世
+          <t>冠世</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
 </t>
         </is>
       </c>
@@ -1725,7 +1845,12 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t xml:space="preserve">艾伦星稳重的分子
+          <t>艾伦星稳重的分子</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
 </t>
         </is>
       </c>
@@ -1778,7 +1903,12 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t xml:space="preserve">往后余生
+          <t>往后余生</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
 </t>
         </is>
       </c>
@@ -1831,7 +1961,12 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t xml:space="preserve">斌不不不
+          <t>斌不不不</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
 </t>
         </is>
       </c>
@@ -1884,7 +2019,12 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t xml:space="preserve">五湖集团
+          <t>五湖集团</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
 </t>
         </is>
       </c>
@@ -1892,7 +2032,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1937,7 +2077,12 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t xml:space="preserve">梦及所爱
+          <t>梦及所爱</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
 </t>
         </is>
       </c>
@@ -1990,7 +2135,12 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asgard
+          <t>Asgard</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
 </t>
         </is>
       </c>
@@ -2043,7 +2193,12 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t xml:space="preserve">DuN0286
+          <t>DuN0286</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
 </t>
         </is>
       </c>
@@ -2096,7 +2251,12 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t xml:space="preserve">赢家
+          <t>赢家</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
 </t>
         </is>
       </c>
@@ -2149,7 +2309,12 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t xml:space="preserve">诚啊信啊
+          <t>诚啊信啊</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
 </t>
         </is>
       </c>
@@ -2202,7 +2367,12 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asgard2
+          <t>Asgard2</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
 </t>
         </is>
       </c>
@@ -2255,7 +2425,12 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t xml:space="preserve">不要发百世
+          <t>不要发百世</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
 </t>
         </is>
       </c>
@@ -2263,52 +2438,115 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>冲钱守护木叶村</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2021-12-26 13:07</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2022-01-26 13:07</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>running</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>无名男子持刀</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_01
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>03</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>泰山归移车昭才</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>2021-12-28 17:33</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>2022-01-28 17:33</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2021-12-28 12:00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2022-01-28 12:00</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>running</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">续一杯冰茶
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>续一杯冰茶</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_01
 </t>
         </is>
       </c>

--- a/部落冲突客户信息.xlsx
+++ b/部落冲突客户信息.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2544,6 +2544,2152 @@
         </is>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>模拟器id</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>模拟器别名</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>用户部落名</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>开始服务时间</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>结束服务时间</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>总服务时间(天)</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>上次消费金额</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>总消费金额</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>运行状态</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>用户名称</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">服务器名
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>星陨</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>天空之城</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2020-11-29 15:14</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2022-03-09 15:14</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>running</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>天空之城</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>微信-星际</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>售出账号</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2021-03-22 20:59</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2022-02-16 09:27</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>running</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>售出账号</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>星陨</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>叙利亚军团</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2020-10-29 19:42</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2020-12-2 00:00</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>stop</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>叙利亚军团</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>QQ2-星辰</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>神马</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2020-11-11 19:43</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2021-01-15 01:43</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>stop</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>神马</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>QQ3-星空</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>云霄天庭</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2020-12-02 22:21</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2021-09-24 20:36</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>558</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>stop</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>云霄天庭</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>星陨</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>烟花易冷人事易分</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2020-12-03 12:46</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2021-07-09 18:36</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>stop</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>烟花易冷人事易分</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>QQ4-星河</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>卡洛斯</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2020-12-24 20:40</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2021-03-30 20:35</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>stop</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>卡洛斯</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>QQ2-星辰</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>幻世贵族</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2021-01-24 14:18</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2021-04-30 20:18</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>stop</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>幻世贵族</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>QQ5-星核</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>君临</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2021-01-27 13:03</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2021-04-30 13:03</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>stop</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>君临</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>QQ1-星痕</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>为琴所困</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2021-03-10 11:31</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2021-05-2 11:31</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>stop</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>为琴所困</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>QQ4-星河</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>红领巾的骄傲</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2021-04-13 14:24</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2021-09-21 11:22</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>stop</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>红领巾的骄傲</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>QQ2-星辰</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>皇极无门</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2021-05-01 14:22</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2021-06-02 14:22</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>stop</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>皇极无门</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>QQ1-星痕</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>草帽海贼团</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2021-05-08 20:25</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2021-08-09 20:25</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>stop</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>草帽海贼团</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>QQ2-星辰</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>木槿昔年</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2021-06-04 08:14</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2021-08-05 08:14</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>stop</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>草帽海贼团</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>微信-星际</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>转让首领</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2021-06-17 19:12</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2021-07-18 19:12</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>stop</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>转让首领</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>码奴00</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Rose Lemonade</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2021-06-18 14:35</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2021-07-19 14:35</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>stop</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Rose Lemonade</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>星陨</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>彼岸花</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4021-07-29 00:14</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2021-10-05 19:40</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>stop</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>彼岸花</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>码奴00</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>18电商一班</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2021-08-03 19:19</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2021-09-02 19:48</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>stop</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>18电商一班</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>QQ1-星痕</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>D03A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2021-08-14 16:52</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2021-09-01 00:00</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>stop</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>D03A</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>QQ2-星辰</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>CHINSURAH</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2021-08-15 13:40</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>2021-11-16 13:40</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>stop</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>CHINSURAH</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>QQ1-星痕</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>低本训练营</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2021-08-30 00:20</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>2021-09-30 00:20</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>stop</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>低本训练营</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>QQ5-星核</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>半夏微凉</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2021-09-21 10:57</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>2021-10-22 10:57</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>stop</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>半夏微凉</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>QQ1-星痕</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>冠世</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2021-10-01 16:33</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>2022-02-07 16:33</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>running</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>冠世</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>QQ4-星河</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>梁山兵团</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2021-10-02 22:59</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>2022-01-04 22:59</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>running</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>艾伦星稳重的分子</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>星陨</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>往后余生</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2021-10-05 18:00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2021-11-05 18:00</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>stop</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>往后余生</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>码奴00</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>群英</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2021-10-20 18:57</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>2021-12-22 18:57</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>stop</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>斌不不不</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>QQ5-星核</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>五湖集团</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2021-11-01 18:10</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2021-12-02 18:10</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>stop</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>五湖集团</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>与歌与酒</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2021-11-02 16:27</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>2022-01-04 16:27</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>running</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>梦及所爱</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>星陨</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Asgard</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2021-11-13 16:40</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>2022-01-15 16:40</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>running</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Asgard</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>QQ3-星空</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>一剑九舟</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2021-11-15 16:43</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>2022-01-24 16:43</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>running</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>DuN0286</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>捐兵用户-百度</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>赢家</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2021-11-16 10:50</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>2021-12-01 10:50</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>stop</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>赢家</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>QQ2-星辰</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>比奇堡</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2021-11-17 15:37</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>2022-01-19 15:37</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>running</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>诚啊信啊</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>QQ5-星核</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Asgard2</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2021-12-02 19:21</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>2022-01-03 19:21</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>running</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Asgard2</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>坐天下之仙府崛起</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2021-12-23 18:52</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>2022-01-24 18:52</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>running</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>不要发百世</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>冲钱守护木叶村</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2021-12-26 13:07</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>2022-01-26 13:07</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>running</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>无名男子持刀</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_01
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>泰山归移车昭才</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2021-12-28 12:00</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>2022-01-29 12:00</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>running</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>续一杯冰茶</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_01
+</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/部落冲突客户信息.xlsx
+++ b/部落冲突客户信息.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K74"/>
+  <dimension ref="A1:K111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4690,6 +4690,2152 @@
         </is>
       </c>
     </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>模拟器id</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>模拟器别名</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>用户部落名</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>开始服务时间</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>结束服务时间</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>总服务时间(天)</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>上次消费金额</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>总消费金额</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>运行状态</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>用户名称</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">服务器名
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>星陨</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>天空之城</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2020-11-29 15:14</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>2022-03-09 15:14</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>running</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>天空之城</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>微信-星际</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>售出账号</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2021-03-22 20:59</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>2022-02-16 09:27</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>running</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>售出账号</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>星陨</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>叙利亚军团</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2020-10-29 19:42</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>2020-12-2 00:00</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>stop</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>叙利亚军团</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>QQ2-星辰</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>神马</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2020-11-11 19:43</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>2021-01-15 01:43</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>stop</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>神马</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>QQ3-星空</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>云霄天庭</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2020-12-02 22:21</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>2021-09-24 20:36</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>558</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>stop</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>云霄天庭</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>星陨</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>烟花易冷人事易分</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2020-12-03 12:46</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>2021-07-09 18:36</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>stop</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>烟花易冷人事易分</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>QQ4-星河</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>卡洛斯</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2020-12-24 20:40</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>2021-03-30 20:35</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>stop</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>卡洛斯</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>QQ2-星辰</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>幻世贵族</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2021-01-24 14:18</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>2021-04-30 20:18</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>stop</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>幻世贵族</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>QQ5-星核</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>君临</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2021-01-27 13:03</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>2021-04-30 13:03</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>stop</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>君临</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>QQ1-星痕</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>为琴所困</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2021-03-10 11:31</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>2021-05-2 11:31</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>stop</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>为琴所困</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>QQ4-星河</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>红领巾的骄傲</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2021-04-13 14:24</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>2021-09-21 11:22</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>stop</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>红领巾的骄傲</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>QQ2-星辰</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>皇极无门</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2021-05-01 14:22</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>2021-06-02 14:22</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>stop</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>皇极无门</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>QQ1-星痕</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>草帽海贼团</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2021-05-08 20:25</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>2021-08-09 20:25</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>stop</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>草帽海贼团</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>QQ2-星辰</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>木槿昔年</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2021-06-04 08:14</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>2021-08-05 08:14</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>stop</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>草帽海贼团</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>微信-星际</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>转让首领</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2021-06-17 19:12</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>2021-07-18 19:12</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>stop</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>转让首领</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>码奴00</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Rose Lemonade</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2021-06-18 14:35</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>2021-07-19 14:35</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>stop</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Rose Lemonade</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>星陨</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>彼岸花</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>4021-07-29 00:14</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>2021-10-05 19:40</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>stop</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>彼岸花</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>码奴00</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>18电商一班</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2021-08-03 19:19</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>2021-09-02 19:48</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>stop</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>18电商一班</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>QQ1-星痕</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>D03A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2021-08-14 16:52</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>2021-09-01 00:00</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>stop</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>D03A</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>QQ2-星辰</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>CHINSURAH</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2021-08-15 13:40</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>2021-11-16 13:40</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>stop</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>CHINSURAH</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>QQ1-星痕</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>低本训练营</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2021-08-30 00:20</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>2021-09-30 00:20</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>stop</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>低本训练营</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>QQ5-星核</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>半夏微凉</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2021-09-21 10:57</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>2021-10-22 10:57</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>stop</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>半夏微凉</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>QQ1-星痕</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>冠世</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2021-10-01 16:33</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>2022-02-07 16:33</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>running</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>冠世</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>QQ4-星河</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>梁山兵团</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2021-10-02 22:59</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>2022-02-04 22:59</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>running</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>艾伦星稳重的分子</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_03
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>星陨</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>往后余生</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2021-10-05 18:00</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>2021-11-05 18:00</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>stop</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>往后余生</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>码奴00</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>群英</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2021-10-20 18:57</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>2021-12-22 18:57</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>stop</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>斌不不不</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>QQ5-星核</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>五湖集团</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2021-11-01 18:10</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>2021-12-02 18:10</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>stop</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>五湖集团</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>与歌与酒</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2021-11-02 16:27</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>2022-01-04 16:27</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>stop</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>梦及所爱</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>星陨</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Asgard</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2021-11-13 16:40</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>2022-01-15 16:40</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>running</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Asgard</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>QQ3-星空</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>一剑九舟</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2021-11-15 16:43</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>2022-01-24 16:43</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>running</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>DuN0286</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>捐兵用户-百度</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>赢家</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2021-11-16 10:50</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>2021-12-01 10:50</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>stop</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>赢家</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>QQ2-星辰</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>比奇堡</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2021-11-17 15:37</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>2022-01-19 15:37</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>running</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>诚啊信啊</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>QQ5-星核</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Asgard2</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2021-12-02 19:21</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>2022-01-03 19:21</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>stop</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Asgard2</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>坐天下之仙府崛起</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2021-12-23 18:52</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>2022-01-24 18:52</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>running</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>不要发百世</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>冲钱守护木叶村</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2021-12-26 13:07</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>2022-01-26 13:07</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>running</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>无名男子持刀</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_01
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>泰山归移车昭才</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2021-12-28 12:00</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>2022-01-29 12:00</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>running</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>续一杯冰茶</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_01
+</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/部落冲突客户信息.xlsx
+++ b/部落冲突客户信息.xlsx
@@ -2093,7 +2093,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Asgard</t>
+          <t>Asgard1</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2022-01-15 16:40</t>
+          <t>2022-01-14 16:40</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2441,7 +2441,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>皎白的月光有我</t>
+          <t>苍夜溯梦</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">

--- a/部落冲突客户信息.xlsx
+++ b/部落冲突客户信息.xlsx
@@ -2103,7 +2103,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2022-01-14 16:40</t>
+          <t>2022-01-15 16:40</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">

--- a/部落冲突客户信息.xlsx
+++ b/部落冲突客户信息.xlsx
@@ -2108,7 +2108,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>124</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2118,12 +2118,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>220</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>running</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2731,7 +2731,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>砥砺前行1</t>
+          <t>放肆的青春1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>砥砺前行2</t>
+          <t>放肆的青春2</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">

--- a/部落冲突客户信息.xlsx
+++ b/部落冲突客户信息.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4021-07-29 00:14</t>
+          <t>2021-07-29 00:14</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1445,12 +1445,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>码奴00</t>
+          <t>星陨</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1465,27 +1465,27 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2021-09-02 19:48</t>
+          <t>2022-02-16 18:24</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>91</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>95</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>running</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t xml:space="preserve">server_02
+          <t xml:space="preserve">server_03
 </t>
         </is>
       </c>
@@ -2509,12 +2509,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2022-01-29 12:00</t>
+          <t>2022-03-01 12:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>62</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2524,7 +2524,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>60</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2539,7 +2539,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t xml:space="preserve">server_01
+          <t xml:space="preserve">server_03
 </t>
         </is>
       </c>
@@ -2828,6 +2828,64 @@
         </is>
       </c>
       <c r="K42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_01
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>捐兵用户-努力</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>努力</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2022-01-16 14:05</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2022-02-16 14:05</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>running</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>陈言</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t xml:space="preserve">server_01
 </t>

--- a/部落冲突客户信息.xlsx
+++ b/部落冲突客户信息.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2161,12 +2161,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2022-01-24 16:43</t>
+          <t>2022-02-24 16:43</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2176,7 +2176,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>130</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t xml:space="preserve">server_02
+          <t xml:space="preserve">server_03
 </t>
         </is>
       </c>
@@ -2277,12 +2277,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2022-01-19 15:37</t>
+          <t>2022-02-19 15:37</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>93</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2292,7 +2292,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>150</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t xml:space="preserve">server_02
+          <t xml:space="preserve">server_03
 </t>
         </is>
       </c>
@@ -2393,12 +2393,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2022-01-24 18:52</t>
+          <t>2022-02-08 18:52</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>46</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>60</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2423,7 +2423,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t xml:space="preserve">server_02
+          <t xml:space="preserve">server_03
 </t>
         </is>
       </c>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>62</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2466,12 +2466,12 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>60</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>running</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2022-02-05 08:46</t>
+          <t>2022-03-08 08:46</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>62</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2582,7 +2582,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2597,7 +2597,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t xml:space="preserve">server_02
+          <t xml:space="preserve">server_03
 </t>
         </is>
       </c>
@@ -2886,6 +2886,238 @@
         </is>
       </c>
       <c r="K43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_01
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鸡头粗壮</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2022-01-26 12:38</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2022-02-26 12:38</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>running</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PVGLYBGG</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_03
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>庇护之地</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2022-01-25 19:20</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2022-02-25 19:20</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>running</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>塔拉夏古墓</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_03
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>龙场驿站</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2022-01-31 10:16</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2022-03-03 10:16</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>running</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>该网名不对傻子展示</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_01
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>战苦修营</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2022-02-01 17:53</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2022-02-08 17:53</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>running</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>t***3</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t xml:space="preserve">server_01
 </t>

--- a/部落冲突客户信息.xlsx
+++ b/部落冲突客户信息.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2625,12 +2625,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2022-02-06 21:46</t>
+          <t>2022-03-09 21:46</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>62</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2640,7 +2640,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>60</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2655,7 +2655,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t xml:space="preserve">server_02
+          <t xml:space="preserve">server_03
 </t>
         </is>
       </c>
@@ -3118,6 +3118,64 @@
         </is>
       </c>
       <c r="K47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_01
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>D03</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2022-02-04 17:03</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2022-06-08 17:03</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>running</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>D03</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
         <is>
           <t xml:space="preserve">server_01
 </t>

--- a/部落冲突客户信息.xlsx
+++ b/部落冲突客户信息.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1760,7 +1760,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>248</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1770,12 +1770,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>370</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>running</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>248</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1828,12 +1828,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>running</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2045,12 +2045,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2022-02-07 17:52</t>
+          <t>2022-03-10 17:52</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>124</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2060,7 +2060,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2075,7 +2075,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t xml:space="preserve">server_01
+          <t xml:space="preserve">server_03
 </t>
         </is>
       </c>
@@ -2393,12 +2393,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2022-02-08 18:52</t>
+          <t>2022-03-11 18:52</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>77</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>90</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2688,7 +2688,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>62</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2698,12 +2698,12 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>60</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>running</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -3178,6 +3178,64 @@
       <c r="K48" t="inlineStr">
         <is>
           <t xml:space="preserve">server_01
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>QQ4-星河</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>使徒殿</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2022-02-05 21:50</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2022-03-08 21:50</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>running</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>t***2</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
 </t>
         </is>
       </c>

--- a/部落冲突客户信息.xlsx
+++ b/部落冲突客户信息.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,7 +484,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>930</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -494,12 +494,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>700</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>running</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -542,7 +542,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>558</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -552,12 +552,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>640</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>running</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>182</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1480,12 +1480,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>190</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>running</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -2045,12 +2045,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2022-03-10 17:52</t>
+          <t>2022-04-10 17:52</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>155</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2060,7 +2060,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>150</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2161,12 +2161,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2022-02-24 16:43</t>
+          <t>2022-03-27 16:43</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>131</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2176,7 +2176,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>170</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>比奇堡</t>
+          <t>长沙宁乡</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2277,12 +2277,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2022-02-19 15:37</t>
+          <t>2022-03-22 17:19</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>217</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2292,7 +2292,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>350</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2509,12 +2509,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2022-03-01 12:00</t>
+          <t>2022-04-02 15:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>155</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2524,7 +2524,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>150</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2022-03-08 08:46</t>
+          <t>2022-03-09 08:46</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>124</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2582,12 +2582,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>160</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>running</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>62</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>60</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>running</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2804,7 +2804,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>62</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2814,12 +2814,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>60</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>running</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2862,7 +2862,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>62</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2872,12 +2872,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>60</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>running</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>62</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2930,12 +2930,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>60</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>running</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2973,12 +2973,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2022-02-25 19:20</t>
+          <t>2022-03-28 19:20</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>62</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2988,7 +2988,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>60</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2022-01-31 10:16</t>
+          <t>2022-01-62 10:16</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3046,12 +3046,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>60</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>running</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3104,12 +3104,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>running</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3236,6 +3236,412 @@
       <c r="K49" t="inlineStr">
         <is>
           <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>QQ1-星痕</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>小日子过得不错</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2022-02-08 22:214</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2022-02-15 12:27</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>stop</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>建盏玩家</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>吊人喝茶麻将垃圾兄弟</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2022-02-10 20:43</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2022-03-14 20:43</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>running</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>吊人喝茶麻将垃圾兄弟</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_03
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>这个部落好幽默</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2022-02-13 17:50</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2022-03-16 17:50</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>running</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>再叫我姐姐生气了</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_03
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>星陨</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>都是Fairy</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2022-02-17 21:25</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2022-03-20 21:25</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>running</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ymz5201314</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>神一般的存在</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2022-02-20 23:16</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2022-03-23 23:16</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>running</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>PoDuck</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_03
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>QQ1-星痕</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Brothers</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2022-02-23 00:07</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2022-03-26 00:07</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>running</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>splusss</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>砺心俗尘</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2022-03-04 8:00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2022-04-04 8:00</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>running</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>再也不见</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_03
 </t>
         </is>
       </c>

--- a/部落冲突客户信息.xlsx
+++ b/部落冲突客户信息.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1735,12 +1735,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>QQ1-星痕</t>
+          <t>星陨</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1755,32 +1755,32 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2022-02-07 16:33</t>
+          <t>2022-04-24 15:23</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>279</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>425</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>running</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>冠世</t>
+          <t>周伯云</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2161,12 +2161,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2022-03-27 16:43</t>
+          <t>2022-04-28 16:43</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>162</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2176,7 +2176,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>210</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>434</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2292,12 +2292,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>700</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>running</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2393,12 +2393,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2022-03-11 18:52</t>
+          <t>2022-04-11 18:52</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>108</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2022-03-09 08:46</t>
+          <t>2022-04-13 08:54</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>155</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2582,12 +2582,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>200</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>running</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2630,7 +2630,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>124</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2640,12 +2640,12 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>running</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2973,12 +2973,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2022-03-28 19:20</t>
+          <t>2022-04-28 19:20</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>93</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2988,7 +2988,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>90</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3205,22 +3205,22 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2022-03-08 21:50</t>
+          <t>2022-04-10 20:58</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>93</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>130</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3235,7 +3235,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t xml:space="preserve">server_02
+          <t xml:space="preserve">server_03
 </t>
         </is>
       </c>
@@ -3326,7 +3326,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>62</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -3336,12 +3336,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>60</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>running</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -3384,7 +3384,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>62</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3394,12 +3394,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>60</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>running</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3442,7 +3442,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>62</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3452,12 +3452,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>running</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3475,12 +3475,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>08</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3495,12 +3495,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2022-03-23 23:16</t>
+          <t>2022-04-25 01:44</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>93</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3510,7 +3510,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>90</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3553,22 +3553,22 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2022-03-26 00:07</t>
+          <t>2022-06-28 00:07</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>124</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>185</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3611,7 +3611,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2022-04-04 8:00</t>
+          <t>2022-04-04 08:00</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3642,6 +3642,180 @@
       <c r="K56" t="inlineStr">
         <is>
           <t xml:space="preserve">server_03
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>一剑九舟2</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2022-03-18 19:13</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2022-04-18 19:13</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>running</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>DuN0286</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>纳底大帝国</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2022-03-20 22:49</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>2022-04-20 22:49</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>running</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>t***7</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_03
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>QQ2-星辰</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>屋檐下听雨</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2022-03-30 00:23</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>2022-04-30 00:23</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>running</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>尘枫</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">server_02
 </t>
         </is>
       </c>
